--- a/ResultadoEleicoesDistritos/COIMBRA_MONTEMOR-O-VELHO.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_MONTEMOR-O-VELHO.xlsx
@@ -597,64 +597,64 @@
         <v>6473</v>
       </c>
       <c r="H2" t="n">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="I2" t="n">
-        <v>668</v>
+        <v>601</v>
       </c>
       <c r="J2" t="n">
-        <v>2703</v>
+        <v>2695</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="M2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" t="n">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="T2" t="n">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="U2" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="V2" t="n">
-        <v>4151</v>
+        <v>4105</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>4120</v>
+        <v>4215</v>
       </c>
       <c r="Y2" t="n">
         <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
